--- a/2023年软件学院学术科技部/【青春逐梦】“职在必得，一研为定”/【青春逐梦】“职在必得，一研为定”第5期/【青春逐梦】“职在必得，一研为定”第五次讲座工作安排.xlsx
+++ b/2023年软件学院学术科技部/【青春逐梦】“职在必得，一研为定”/【青春逐梦】“职在必得，一研为定”第5期/【青春逐梦】“职在必得，一研为定”第五次讲座工作安排.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>活动任务</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>活动过程中递麦克风，维持现场秩序（机动）</t>
+  </si>
+  <si>
+    <t>汤竣棓</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1137,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1292,7 +1295,9 @@
       <c r="D12" s="9"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
